--- a/espacializacao_hoteis/hoteis_coord.xlsx
+++ b/espacializacao_hoteis/hoteis_coord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Orientacoes_de_alunos [TURISMO]\2024.2\VINICIUS HENRIQUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78BCE80-EACF-4A3E-8DC5-9517C71DE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B08FB-8EE9-4E04-995F-03913786EB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>hotel</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Rede_Andrade_LG_Inn</t>
   </si>
   <si>
-    <t>Rede_Andrade_Navegantes</t>
-  </si>
-  <si>
     <t>Rede_Andrade_Onda_mar</t>
   </si>
   <si>
@@ -125,6 +122,90 @@
   </si>
   <si>
     <t>-8.116538871476644, -34.89485987458913</t>
+  </si>
+  <si>
+    <t>-8.129007192286256, -34.90062504646503</t>
+  </si>
+  <si>
+    <t>-8.113965413308687, -34.892547553859856</t>
+  </si>
+  <si>
+    <t>-8.128197012930327, -34.89885518084642</t>
+  </si>
+  <si>
+    <t>-8.119903487717643, -34.89711670413616</t>
+  </si>
+  <si>
+    <t>-8.124674198129473, -34.89636857090203</t>
+  </si>
+  <si>
+    <t>-8.117707644623852, -34.8933032467688</t>
+  </si>
+  <si>
+    <t>-8.155681905054847, -34.90968353968906</t>
+  </si>
+  <si>
+    <t>-8.131178219212332, -34.902982946464896</t>
+  </si>
+  <si>
+    <t>-8.130146655857049, -34.90419399064265</t>
+  </si>
+  <si>
+    <t>-8.126839627939237, -34.89739677530049</t>
+  </si>
+  <si>
+    <t>-8.13753159656879, -34.90150448509647</t>
+  </si>
+  <si>
+    <t>-8.116906386214726, -34.89291548509691</t>
+  </si>
+  <si>
+    <t>-8.122682201092564, -34.90725094091936</t>
+  </si>
+  <si>
+    <t>-8.099264077378832, -34.885193686945804</t>
+  </si>
+  <si>
+    <t>-8.127751554844663, -34.898158559958446</t>
+  </si>
+  <si>
+    <t>-8.128025660244557, -34.90014519434001</t>
+  </si>
+  <si>
+    <t>-8.131745935575738, -34.91511527714923</t>
+  </si>
+  <si>
+    <t>-8.100728208777152, -34.884838904136366</t>
+  </si>
+  <si>
+    <t>-8.13181441943075, -34.903685229273975</t>
+  </si>
+  <si>
+    <t>-8.131342856362762, -34.90008165016226</t>
+  </si>
+  <si>
+    <t>-8.107311059803774, -34.88785122927451</t>
+  </si>
+  <si>
+    <t>-8.115282670972526, -34.89299295201114</t>
+  </si>
+  <si>
+    <t>Rede_Andrade_Navegantes_Praia</t>
+  </si>
+  <si>
+    <t>-8.115955735367182, -34.89480701762941</t>
+  </si>
+  <si>
+    <t>-8.12442250538446, -34.89913364831368</t>
+  </si>
+  <si>
+    <t>-8.13286903608039, -34.91099331762953</t>
+  </si>
+  <si>
+    <t>-8.116189207223707, -34.89973831762948</t>
+  </si>
+  <si>
+    <t>-8.128303402426116, -34.90093574831378</t>
   </si>
 </sst>
 </file>
@@ -490,180 +571,261 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="B31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
